--- a/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 1.xlsx
+++ b/1F. Agenda en notulen van elke vergadering/Agenda's/Agenda week 1.xlsx
@@ -171,18 +171,12 @@
     <t>Wie gaat wat doen de komende week</t>
   </si>
   <si>
-    <t>Datum:8 Sep.</t>
-  </si>
-  <si>
     <t>Tijd: 09.40</t>
   </si>
   <si>
     <t xml:space="preserve">Notulen aan :Teun, Jorrit, Evelien, Fedde  </t>
   </si>
   <si>
-    <t xml:space="preserve">Agenda aan :Fedde </t>
-  </si>
-  <si>
     <t>Rolverdeling</t>
   </si>
   <si>
@@ -193,6 +187,12 @@
   </si>
   <si>
     <t>De pijlingslijst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agenda aan :Fedde, Teun, Jorrit, Evelien </t>
+  </si>
+  <si>
+    <t>Datum:10 Sep.</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +937,7 @@
       <c r="C3" s="56"/>
       <c r="D3" s="57"/>
       <c r="E3" s="58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="59"/>
@@ -946,7 +946,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
@@ -958,7 +958,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C5" s="71"/>
       <c r="D5" s="72"/>
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
@@ -1164,7 +1164,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I25" s="49"/>
     </row>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I34" s="49"/>
       <c r="J34" s="21"/>
@@ -1439,6 +1439,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1487,15 +1496,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement/>
@@ -1503,6 +1503,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1513,14 +1521,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
